--- a/biology/Zoologie/Cratogeomys/Cratogeomys.xlsx
+++ b/biology/Zoologie/Cratogeomys/Cratogeomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cratogeomys est un genre de Rongeurs de la famille des Géomyidés qui rassemble des gaufres ou rats à poche, c'est-à-dire à abajoues. 
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit pour la première fois en 1895 par un zoologiste américain, Clinton Hart Merriam (1855-1942), le nombre d'espèces y diffère selon les auteurs. Certaines espèces sont classées parfois dans le genre Pappogeomys[1] et la taxinomie de Cratogeomys fumosus a été révisée en 2004, suggérant d'inclure dans cette espèce quatre espèces originairement distinctes : C. gymnurus, C. neglectus, C. tylorhinus et C. zinseri (Hafner et al. 2004) [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit pour la première fois en 1895 par un zoologiste américain, Clinton Hart Merriam (1855-1942), le nombre d'espèces y diffère selon les auteurs. Certaines espèces sont classées parfois dans le genre Pappogeomys et la taxinomie de Cratogeomys fumosus a été révisée en 2004, suggérant d'inclure dans cette espèce quatre espèces originairement distinctes : C. gymnurus, C. neglectus, C. tylorhinus et C. zinseri (Hafner et al. 2004) .
 </t>
         </is>
       </c>
@@ -542,18 +556,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2016)[3] :
-Cratogeomys castanops (Baird, 1852) - Rat à poche mexicain[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2016) :
+Cratogeomys castanops (Baird, 1852) - Rat à poche mexicain
 Cratogeomys fumosus (Merriam, 1892)
 Cratogeomys goldmani Merriam, 1895
-Cratogeomys gymnurus Merriam, 1892 - espèce probablement incluse dans Cratogeomys fumosus[2]
+Cratogeomys gymnurus Merriam, 1892 - espèce probablement incluse dans Cratogeomys fumosus
 Cratogeomys merriami (Thomas, 1893)
-Cratogeomys neglectus (Merriam, 1902) - espèce probablement incluse dans Cratogeomys fumosus[2]
-Cratogeomys tylorhinus (Merriam, 1895) - espèce probablement incluse dans Cratogeomys fumosus[2]
-Cratogeomys zinseri (Goldman, 1939) - espèce probablement incluse dans Cratogeomys fumosus[2]
-Selon ITIS      (1 juin 2016)[5] :
+Cratogeomys neglectus (Merriam, 1902) - espèce probablement incluse dans Cratogeomys fumosus
+Cratogeomys tylorhinus (Merriam, 1895) - espèce probablement incluse dans Cratogeomys fumosus
+Cratogeomys zinseri (Goldman, 1939) - espèce probablement incluse dans Cratogeomys fumosus
+Selon ITIS      (1 juin 2016) :
 Cratogeomys castanops (Baird, 1852)
 Cratogeomys fulvescens Merriam, 1895
 Cratogeomys fumosus (Merriam, 1892)
@@ -561,7 +577,7 @@
 Cratogeomys merriami (Thomas, 1893)
 Cratogeomys perotensis Merriam, 1895
 Cratogeomys planiceps (Merriam, 1895)
-Selon NCBI  (1 juin 2016)[6] :
+Selon NCBI  (1 juin 2016) :
 Cratogeomys bursarius
 Cratogeomys castanops
 Cratogeomys estor
@@ -575,7 +591,7 @@
 Cratogeomys planiceps
 Cratogeomys tylorhinus
 Cratogeomys zinseri
-Selon Paleobiology Database                   (1 juin 2016)[7] :
+Selon Paleobiology Database                   (1 juin 2016) :
 Cratogeomys bensoni
 Cratogeomys castanops
 Cratogeomys fumosus
